--- a/results/I3_N5_M3_T45_C150_DepCentral_s4_P1_res.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepCentral_s4_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>855.0155370034989</v>
+        <v>1586.300079054224</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.73074255039767</v>
+        <v>18.73569081392109</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.73122464411561</v>
+        <v>10.78589910652771</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.276019097214691</v>
+        <v>4.350287346831242</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>730.9800000000021</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>101.76</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,23 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -689,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -722,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -766,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -813,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -835,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -879,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -940,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>39.58582527041438</v>
       </c>
     </row>
     <row r="4">
@@ -956,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.77463816779881</v>
+        <v>3.175153539594582</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>31.61595173195241</v>
       </c>
     </row>
     <row r="7">
@@ -972,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.46902814888774</v>
+        <v>37.11679712152664</v>
       </c>
     </row>
     <row r="8">
@@ -980,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.6146379281073</v>
+        <v>42.40185083848012</v>
       </c>
     </row>
     <row r="9">
@@ -988,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.94979170739339</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1010,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1042,13 +1031,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1056,13 +1045,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1070,13 +1059,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1084,13 +1073,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1098,13 +1087,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1112,13 +1101,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1126,13 +1115,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1140,13 +1129,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1154,13 +1143,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1168,15 +1157,85 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1279,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>103.9450000000001</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8">
@@ -1290,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.87500000000007</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9">
@@ -1301,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.50500000000008</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10">
@@ -1312,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>97.73000000000008</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.70500000000007</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12">
@@ -1334,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>139.98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -1345,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>150.475</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
@@ -1356,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>153.65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -1367,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>160.36</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
@@ -1378,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>153.76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -1389,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>195.9750000000007</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -1400,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>208.875</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -1411,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>210.6550000000007</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -1422,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>214.22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -1433,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>209.7400000000007</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -1444,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>59.47000000000007</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23">
@@ -1455,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>67.50500000000008</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24">
@@ -1466,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.01500000000007</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25">
@@ -1477,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>66.88500000000008</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26">
@@ -1488,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>68.49000000000007</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27">
@@ -1499,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>166.43</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28">
@@ -1510,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>167.64</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
@@ -1521,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>169.01</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
@@ -1532,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>166.79</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31">
@@ -1543,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>156.155</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32">
@@ -1554,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>166.43</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33">
@@ -1565,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>167.64</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34">
@@ -1576,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>169.01</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35">
@@ -1587,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>166.79</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
@@ -1598,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>156.155</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37">
@@ -1609,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>195.9750000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1620,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>208.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1631,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>210.6550000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1642,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>214.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1653,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>209.7400000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1755,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>16.42999999999978</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -1766,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>17.63999999999979</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
@@ -1777,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.00999999999979</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
@@ -1788,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.78999999999979</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
@@ -1799,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.154999999999774</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
@@ -1810,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>45.97500000000073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1821,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>58.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1832,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>60.65500000000071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1843,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1854,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>59.74000000000072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1956,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1967,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1978,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1989,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2000,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2066,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -2077,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -2088,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -2099,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -2110,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -2121,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2132,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2143,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2154,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2234,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2261,10 +2320,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2272,10 +2331,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2283,10 +2342,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2294,10 +2353,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2305,10 +2364,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2316,10 +2375,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2327,10 +2386,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2338,10 +2397,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2349,10 +2408,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2360,10 +2419,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2374,7 +2433,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2385,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2396,7 +2455,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2407,9 +2466,20 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
